--- a/hw_global/Data/hourlyDataSchema.xlsx
+++ b/hw_global/Data/hourlyDataSchema.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="141">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">Long Name</t>
   </si>
   <si>
+    <t xml:space="preserve">Long Name Original</t>
+  </si>
+  <si>
     <t xml:space="preserve">Units</t>
   </si>
   <si>
@@ -40,7 +43,7 @@
     <t xml:space="preserve">Missing Value</t>
   </si>
   <si>
-    <t xml:space="preserve">X_vars</t>
+    <t xml:space="preserve">X_vars_delta</t>
   </si>
   <si>
     <t xml:space="preserve">X_vars2</t>
@@ -139,6 +142,9 @@
     <t xml:space="preserve">FGR</t>
   </si>
   <si>
+    <t xml:space="preserve">heat flux into soil/snow</t>
+  </si>
+  <si>
     <t xml:space="preserve">heat flux into soil/snow including snow melt and lake / snow light transmission</t>
   </si>
   <si>
@@ -193,6 +199,9 @@
     <t xml:space="preserve">FLDS</t>
   </si>
   <si>
+    <t xml:space="preserve">atmospheric longwave radiation</t>
+  </si>
+  <si>
     <t xml:space="preserve">atmospheric longwave radiation (downscaled to columns in glacier regions)</t>
   </si>
   <si>
@@ -226,6 +235,9 @@
     <t xml:space="preserve">FSH</t>
   </si>
   <si>
+    <t xml:space="preserve">sensible heat</t>
+  </si>
+  <si>
     <t xml:space="preserve">sensible heat not including correction for land use change and rain/snow conversion</t>
   </si>
   <si>
@@ -266,6 +278,9 @@
   </si>
   <si>
     <t xml:space="preserve">PBOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atmospheric pressure at surface</t>
   </si>
   <si>
     <t xml:space="preserve">atmospheric pressure at surface (downscaled to columns in glacier regions)</t>
@@ -468,12 +483,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFA6"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -510,12 +531,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -528,6 +557,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFFA6"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -536,16 +625,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="66.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -579,96 +669,114 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1" t="n">
-        <v>-9999</v>
-      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1" t="n">
         <v>-9999</v>
       </c>
+      <c r="G4" s="1" t="n">
+        <v>-9999</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1" t="n">
-        <v>-9999</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1" t="n">
         <v>-9999</v>
       </c>
+      <c r="G5" s="1" t="n">
+        <v>-9999</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1" t="n">
-        <v>-9999</v>
-      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1" t="n">
         <v>-9999</v>
       </c>
+      <c r="G6" s="1" t="n">
+        <v>-9999</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>24</v>
@@ -677,1244 +785,1328 @@
         <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H13" s="1"/>
       <c r="I13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H16" s="1"/>
       <c r="I16" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" s="0" t="s">
+      <c r="A22" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="B22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>58</v>
+      <c r="A23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>58</v>
+      <c r="A26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H27" s="1"/>
       <c r="I27" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H34" s="1"/>
       <c r="I34" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H35" s="1"/>
       <c r="I35" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E38" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H43" s="1"/>
       <c r="I43" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H49" s="0" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H49" s="1"/>
       <c r="I49" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" s="0" t="s">
-        <v>131</v>
+        <v>14</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>131</v>
+        <v>14</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H58" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/hw_global/Data/hourlyDataSchema.xlsx
+++ b/hw_global/Data/hourlyDataSchema.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="144">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -443,6 +443,15 @@
   </si>
   <si>
     <t xml:space="preserve">atmospheric wind velocity magnitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topography Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this comes from the topography nc, merged it in to the final dataframe</t>
   </si>
 </sst>
 </file>
@@ -625,17 +634,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B60" activeCellId="0" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="66.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="62.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -865,7 +875,9 @@
       <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I10" s="0" t="s">
         <v>34</v>
       </c>
@@ -895,9 +907,7 @@
       <c r="G11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -921,9 +931,7 @@
       <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -947,7 +955,9 @@
       <c r="G13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I13" s="0" t="s">
         <v>34</v>
       </c>
@@ -977,9 +987,7 @@
       <c r="G14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -1003,9 +1011,7 @@
       <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -1029,7 +1035,9 @@
       <c r="G16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I16" s="0" t="s">
         <v>34</v>
       </c>
@@ -1059,9 +1067,7 @@
       <c r="G17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -1085,9 +1091,7 @@
       <c r="G18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
@@ -1213,7 +1217,9 @@
       <c r="G23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="I23" s="3" t="s">
         <v>34</v>
       </c>
@@ -1243,9 +1249,7 @@
       <c r="G24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
@@ -1269,9 +1273,7 @@
       <c r="G25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
@@ -1325,7 +1327,9 @@
       <c r="G27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I27" s="0" t="s">
         <v>34</v>
       </c>
@@ -1355,9 +1359,7 @@
       <c r="G28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
@@ -1381,9 +1383,7 @@
       <c r="G29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
@@ -1408,6 +1408,9 @@
         <v>14</v>
       </c>
       <c r="H30" s="1"/>
+      <c r="I30" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
@@ -1533,7 +1536,9 @@
       <c r="G35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I35" s="0" t="s">
         <v>34</v>
       </c>
@@ -1684,6 +1689,9 @@
         <v>14</v>
       </c>
       <c r="H41" s="1"/>
+      <c r="I41" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
@@ -1912,6 +1920,9 @@
         <v>14</v>
       </c>
       <c r="H50" s="1"/>
+      <c r="I50" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
@@ -1935,7 +1946,12 @@
       <c r="G51" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H51" s="1"/>
+      <c r="H51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
@@ -2107,6 +2123,20 @@
         <v>14</v>
       </c>
       <c r="H58" s="1"/>
+    </row>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/hw_global/Data/hourlyDataSchema.xlsx
+++ b/hw_global/Data/hourlyDataSchema.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="145">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -398,6 +398,9 @@
   </si>
   <si>
     <t xml:space="preserve">2 m vapor pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there is a formula between specific humidity (Q2m) and vapor pressure. It will not impact model fit but will distort contribution ( we might see large offsetting contributions)</t>
   </si>
   <si>
     <t xml:space="preserve">VAPOR_PRES_R</t>
@@ -636,8 +639,8 @@
   </sheetPr>
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B60" activeCellId="0" sqref="B60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K52" activeCellId="0" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -645,7 +648,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="66.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="62.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="78.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1217,9 +1221,7 @@
       <c r="G23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="H23" s="2"/>
       <c r="I23" s="3" t="s">
         <v>34</v>
       </c>
@@ -1947,21 +1949,24 @@
         <v>14</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>34</v>
+        <v>61</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>88</v>
@@ -1979,13 +1984,13 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>88</v>
@@ -2003,13 +2008,13 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>33</v>
@@ -2027,13 +2032,13 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>25</v>
@@ -2050,13 +2055,13 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>25</v>
@@ -2071,18 +2076,18 @@
         <v>14</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>25</v>
@@ -2097,18 +2102,18 @@
         <v>14</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>121</v>
@@ -2126,16 +2131,16 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I59" s="0" t="s">
         <v>34</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/hw_global/Data/hourlyDataSchema.xlsx
+++ b/hw_global/Data/hourlyDataSchema.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="146">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t xml:space="preserve">urban heating flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zero importance</t>
   </si>
   <si>
     <t xml:space="preserve">VAPOR_PRES</t>
@@ -464,7 +467,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -493,6 +496,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -543,7 +552,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -557,6 +566,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -639,15 +652,15 @@
   </sheetPr>
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K52" activeCellId="0" sqref="K52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I47" activeCellId="0" sqref="I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="66.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="61.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="78.08"/>
   </cols>
@@ -1221,7 +1234,9 @@
       <c r="G23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="I23" s="3" t="s">
         <v>34</v>
       </c>
@@ -1923,18 +1938,21 @@
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="0" t="s">
-        <v>34</v>
+        <v>61</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>88</v>
@@ -1955,18 +1973,18 @@
         <v>61</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>88</v>
@@ -1984,13 +2002,13 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>88</v>
@@ -2008,13 +2026,13 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>33</v>
@@ -2032,13 +2050,13 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>25</v>
@@ -2055,13 +2073,13 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>25</v>
@@ -2076,18 +2094,18 @@
         <v>14</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>25</v>
@@ -2102,18 +2120,18 @@
         <v>14</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>121</v>
@@ -2131,16 +2149,16 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I59" s="0" t="s">
         <v>34</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/hw_global/Data/hourlyDataSchema.xlsx
+++ b/hw_global/Data/hourlyDataSchema.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="159">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -43,6 +43,18 @@
     <t xml:space="preserve">Missing Value</t>
   </si>
   <si>
+    <t xml:space="preserve">X_ML_Selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X_ML_Delta_Selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X_Direct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X_both</t>
+  </si>
+  <si>
     <t xml:space="preserve">X_vars_delta</t>
   </si>
   <si>
@@ -52,6 +64,9 @@
     <t xml:space="preserve">X_selected</t>
   </si>
   <si>
+    <t xml:space="preserve">X_background</t>
+  </si>
+  <si>
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
@@ -232,6 +247,39 @@
     <t xml:space="preserve">atmospheric incident solar radiation</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Atmospheric incident solar radiation refers to the total amount of solar energy that reaches the Earth's </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">upper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> atmosphere</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">FSH</t>
   </si>
   <si>
@@ -388,6 +436,9 @@
     <t xml:space="preserve">m/s</t>
   </si>
   <si>
+    <t xml:space="preserve">it is indirect but we use it as proxy for advective heat flux</t>
+  </si>
+  <si>
     <t xml:space="preserve">URBAN_HEAT</t>
   </si>
   <si>
@@ -458,6 +509,24 @@
   </si>
   <si>
     <t xml:space="preserve">this comes from the topography nc, merged it in to the final dataframe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latitude </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitude</t>
   </si>
 </sst>
 </file>
@@ -498,10 +567,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -552,7 +623,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -569,7 +640,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -650,19 +725,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I47" activeCellId="0" sqref="I47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="66.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="61.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="78.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="61.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="25.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="0" width="21.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="78.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -699,57 +775,80 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -759,16 +858,20 @@
       <c r="G4" s="1" t="n">
         <v>-9999</v>
       </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -778,16 +881,20 @@
       <c r="G5" s="1" t="n">
         <v>-9999</v>
       </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -797,1368 +904,1697 @@
       <c r="G6" s="1" t="n">
         <v>-9999</v>
       </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H22" s="2"/>
-      <c r="I22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N26" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>61</v>
+      <c r="O26" s="3"/>
+      <c r="P26" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="0" t="s">
-        <v>34</v>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="J34" s="0" t="s">
-        <v>34</v>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="J35" s="0" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="E38" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="0" t="s">
-        <v>34</v>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="J43" s="0" t="s">
-        <v>34</v>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N43" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" s="1"/>
-      <c r="I49" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="J49" s="0" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N49" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="P49" s="0" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H50" s="1"/>
-      <c r="I50" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>124</v>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I51" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="K51" s="0" t="s">
-        <v>127</v>
+        <v>19</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="P51" s="0" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I56" s="0" t="s">
-        <v>138</v>
+        <v>19</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="M56" s="0" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I57" s="0" t="s">
-        <v>138</v>
+        <v>19</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="M57" s="0" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="K59" s="0" t="s">
-        <v>145</v>
+        <v>151</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M59" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="P59" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M60" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/hw_global/Data/hourlyDataSchema.xlsx
+++ b/hw_global/Data/hourlyDataSchema.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="166">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">X_ML_Delta_Selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X_No_Qstor</t>
   </si>
   <si>
     <t xml:space="preserve">X_Direct</t>
@@ -527,6 +530,24 @@
   </si>
   <si>
     <t xml:space="preserve">Longitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qstor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storage heat flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storage heat flux (includes snowmelt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOILWATER_10CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil liquid water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil liquid water + ice in top 10cm of soil (veg landunits only)</t>
   </si>
 </sst>
 </file>
@@ -725,20 +746,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="66.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="61.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="25.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="0" width="21.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="78.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="3.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="3.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="3.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="9" style="0" width="21.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="78.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -790,65 +815,70 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -862,16 +892,17 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -885,16 +916,17 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -908,1693 +940,1793 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O22" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O23" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O26" s="3"/>
-      <c r="P26" s="4" t="s">
-        <v>75</v>
+        <v>40</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I27" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="J27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M27" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="L30" s="1"/>
-      <c r="M30" s="0" t="s">
-        <v>39</v>
+      <c r="M30" s="1"/>
+      <c r="N30" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="L34" s="1"/>
-      <c r="M34" s="0" t="s">
-        <v>39</v>
-      </c>
+      <c r="M34" s="1"/>
       <c r="N34" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="O34" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M35" s="0" t="s">
-        <v>39</v>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="O35" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="E36" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="0" t="s">
-        <v>39</v>
+      <c r="M41" s="1"/>
+      <c r="N41" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="E42" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="0" t="s">
-        <v>39</v>
-      </c>
+      <c r="M43" s="1"/>
       <c r="N43" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="O43" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K49" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="L49" s="1"/>
-      <c r="M49" s="0" t="s">
-        <v>39</v>
-      </c>
+      <c r="M49" s="1"/>
       <c r="N49" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P49" s="0" t="s">
-        <v>128</v>
+        <v>40</v>
+      </c>
+      <c r="Q49" s="0" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="L50" s="1"/>
-      <c r="M50" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="P50" s="5" t="s">
-        <v>131</v>
+      <c r="M50" s="1"/>
+      <c r="N50" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-      <c r="L51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M51" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="P51" s="0" t="s">
-        <v>134</v>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N51" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q51" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
-      <c r="M56" s="0" t="s">
-        <v>145</v>
+      <c r="L56" s="1"/>
+      <c r="N56" s="0" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
-      <c r="M57" s="0" t="s">
-        <v>145</v>
+      <c r="L57" s="1"/>
+      <c r="N57" s="0" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="M59" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P59" s="0" t="s">
-        <v>152</v>
+        <v>40</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N59" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q59" s="0" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="H60" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="J60" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="M60" s="0" t="s">
-        <v>39</v>
+        <v>156</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N60" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>39</v>
+        <v>67</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H62" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="J62" s="0" t="s">
-        <v>39</v>
+        <v>159</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/hw_global/Data/hourlyDataSchema.xlsx
+++ b/hw_global/Data/hourlyDataSchema.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="170">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
   <si>
+    <t xml:space="preserve">Categorical</t>
+  </si>
+  <si>
     <t xml:space="preserve">Long Name</t>
   </si>
   <si>
@@ -47,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">X_ML_Delta_Selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HW_NOHW_Diff</t>
   </si>
   <si>
     <t xml:space="preserve">X_No_Qstor</t>
@@ -548,6 +554,12 @@
   </si>
   <si>
     <t xml:space="preserve">soil liquid water + ice in top 10cm of soil (veg landunits only)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">local_hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local Hour</t>
   </si>
 </sst>
 </file>
@@ -746,24 +758,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R64"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K59" activeCellId="0" sqref="K59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="66.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="61.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="3.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="3.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="3.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="9" style="0" width="21.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="78.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="66.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="61.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="3.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="3.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="3.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="10" style="0" width="21.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="78.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -818,1915 +831,2119 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="n">
-        <v>-9999</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1" t="n">
         <v>-9999</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="n">
+        <v>-9999</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1" t="n">
-        <v>-9999</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1" t="n">
         <v>-9999</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="n">
+        <v>-9999</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1" t="n">
-        <v>-9999</v>
-      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1" t="n">
         <v>-9999</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="n">
+        <v>-9999</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="M10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="M13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O13" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="M16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N16" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O16" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>65</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="P22" s="3"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="P23" s="3"/>
+      <c r="R23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="K24" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="4" t="s">
-        <v>76</v>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R26" s="3"/>
+      <c r="S26" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="M27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N27" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O27" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>81</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="0" t="s">
-        <v>40</v>
+      <c r="M30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O34" s="0" t="s">
-        <v>40</v>
+      <c r="M34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q34" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>97</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N35" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O35" s="0" t="s">
-        <v>40</v>
+        <v>69</v>
+      </c>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P35" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q35" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="K36" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>102</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="K37" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+      <c r="M38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>106</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+      <c r="M39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F40" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-      <c r="N41" s="0" t="s">
-        <v>40</v>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H42" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>116</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-      <c r="N43" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O43" s="0" t="s">
-        <v>40</v>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q43" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>118</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>120</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>122</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>122</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>125</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>127</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O49" s="0" t="s">
-        <v>40</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
       <c r="P49" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q49" s="0" t="s">
-        <v>129</v>
+        <v>42</v>
+      </c>
+      <c r="R49" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="S49" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>131</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H50" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q50" s="5" t="s">
-        <v>132</v>
+      <c r="M50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="S50" s="5" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>134</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
+      <c r="K51" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="L51" s="1"/>
-      <c r="M51" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N51" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q51" s="0" t="s">
-        <v>135</v>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P51" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="S51" s="0" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>137</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H52" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
+      <c r="K52" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H53" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
+      <c r="K53" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>141</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
+      <c r="K54" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>143</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H55" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
+      <c r="K55" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>145</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H56" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
+      <c r="K56" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="L56" s="1"/>
-      <c r="N56" s="0" t="s">
-        <v>146</v>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="P56" s="0" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>148</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H57" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
+      <c r="K57" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="L57" s="1"/>
-      <c r="N57" s="0" t="s">
-        <v>146</v>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="P57" s="0" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>150</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
+      <c r="K58" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="H59" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J59" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="K59" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="N59" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q59" s="0" t="s">
         <v>153</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="L59" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="M59" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P59" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="S59" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="K60" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="N60" s="0" t="s">
-        <v>40</v>
+        <v>157</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="M60" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P60" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="J61" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="K61" s="0" t="s">
-        <v>40</v>
+        <v>159</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="L61" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="M61" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="K62" s="0" t="s">
-        <v>40</v>
+        <v>161</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="M62" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="H63" s="0" t="s">
-        <v>40</v>
+        <v>163</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K64" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/hw_global/Data/hourlyDataSchema.xlsx
+++ b/hw_global/Data/hourlyDataSchema.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="171">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">HW_NOHW_Diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double_Diff</t>
   </si>
   <si>
     <t xml:space="preserve">X_No_Qstor</t>
@@ -758,10 +761,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T65"/>
+  <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K59" activeCellId="0" sqref="K59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L55" activeCellId="0" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -775,8 +778,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="3.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="10" style="0" width="21.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="78.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="10" style="0" width="21.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="78.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -837,28 +840,31 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1"/>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -866,25 +872,26 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -892,17 +899,18 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -918,17 +926,18 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -944,17 +953,18 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -970,29 +980,30 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1001,29 +1012,30 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1032,29 +1044,30 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1063,380 +1076,384 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P10" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1445,29 +1462,30 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1476,29 +1494,30 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1507,29 +1526,30 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1538,152 +1558,154 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="P22" s="2"/>
       <c r="Q22" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="R22" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="R23" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1692,195 +1714,198 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="P26" s="2"/>
       <c r="Q26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="R26" s="3"/>
-      <c r="S26" s="4" t="s">
-        <v>78</v>
+        <v>43</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S26" s="3"/>
+      <c r="T26" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P27" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="S27" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L30" s="1"/>
-      <c r="M30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="O30" s="1"/>
-      <c r="P30" s="0" t="s">
-        <v>42</v>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1889,29 +1914,30 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1920,29 +1946,30 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1951,249 +1978,256 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L34" s="1"/>
-      <c r="M34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="O34" s="1"/>
-      <c r="P34" s="0" t="s">
-        <v>42</v>
-      </c>
+      <c r="P34" s="1"/>
       <c r="Q34" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="R34" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P35" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="Q35" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="R35" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L38" s="1"/>
-      <c r="M38" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L39" s="1"/>
-      <c r="M39" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -2202,29 +2236,30 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -2233,32 +2268,33 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
-      <c r="P41" s="0" t="s">
-        <v>42</v>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -2267,29 +2303,30 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2298,35 +2335,36 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
-      <c r="P43" s="0" t="s">
-        <v>42</v>
-      </c>
+      <c r="P43" s="1"/>
       <c r="Q43" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="R43" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2335,29 +2373,30 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -2366,29 +2405,30 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -2397,29 +2437,30 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2428,29 +2469,30 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -2459,491 +2501,492 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L49" s="1"/>
       <c r="M49" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N49" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="O49" s="1"/>
-      <c r="P49" s="0" t="s">
-        <v>42</v>
-      </c>
+      <c r="P49" s="1"/>
       <c r="Q49" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R49" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S49" s="0" t="s">
-        <v>131</v>
+        <v>43</v>
+      </c>
+      <c r="T49" s="0" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="O50" s="1"/>
-      <c r="P50" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="S50" s="5" t="s">
-        <v>134</v>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="T50" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
-      <c r="O51" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P51" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="S51" s="0" t="s">
-        <v>137</v>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q51" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="T51" s="0" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
-      <c r="K52" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
-      <c r="K53" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
-      <c r="P56" s="0" t="s">
-        <v>148</v>
+      <c r="O56" s="1"/>
+      <c r="Q56" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
-      <c r="P57" s="0" t="s">
-        <v>148</v>
+      <c r="O57" s="1"/>
+      <c r="Q57" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="L59" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="P59" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="S59" s="0" t="s">
-        <v>155</v>
+        <v>43</v>
+      </c>
+      <c r="N59" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q59" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="T59" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="M60" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="P60" s="0" t="s">
-        <v>42</v>
+        <v>159</v>
+      </c>
+      <c r="N60" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q60" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="L61" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>42</v>
+        <v>70</v>
+      </c>
+      <c r="N61" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="M62" s="0" t="s">
-        <v>42</v>
+        <v>162</v>
+      </c>
+      <c r="N62" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/hw_global/Data/hourlyDataSchema.xlsx
+++ b/hw_global/Data/hourlyDataSchema.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="179">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -802,11 +802,11 @@
   <dimension ref="A1:AC65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
-      <selection pane="bottomRight" activeCell="D13" activeCellId="0" sqref="13:13"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="K23" activeCellId="0" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1243,10 +1243,10 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>52</v>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="3"/>
@@ -2061,11 +2061,9 @@
         <v>51</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="M27" s="3"/>
       <c r="N27" s="2" t="s">
         <v>52</v>
       </c>
@@ -3557,9 +3555,6 @@
       <c r="I63" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="L63" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="P63" s="0" t="s">
         <v>52</v>
       </c>
@@ -3598,7 +3593,7 @@
         <v>51</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N65" s="0" t="s">
         <v>52</v>

--- a/hw_global/Data/hourlyDataSchema.xlsx
+++ b/hw_global/Data/hourlyDataSchema.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="179">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -689,7 +689,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -716,6 +716,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -799,24 +803,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC65"/>
+  <dimension ref="A1:AC74"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="K23" activeCellId="0" sqref="K23"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="3.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="3.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="3.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.58"/>
@@ -1240,8 +1244,12 @@
       <c r="I10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L10" s="2" t="s">
         <v>52</v>
       </c>
@@ -1395,7 +1403,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1542,10 +1550,10 @@
         <v>51</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>52</v>
@@ -1861,12 +1869,18 @@
       <c r="I23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J23" s="2"/>
+      <c r="J23" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="K23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="2"/>
-      <c r="M23" s="3"/>
+      <c r="L23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -2063,7 +2077,9 @@
       <c r="L27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M27" s="3"/>
+      <c r="M27" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="N27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2433,10 +2449,10 @@
         <v>51</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -3033,10 +3049,12 @@
       <c r="I49" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K49" s="2"/>
+      <c r="J49" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="L49" s="2" t="s">
         <v>52</v>
       </c>
@@ -3100,7 +3118,7 @@
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
+      <c r="K50" s="7"/>
       <c r="L50" s="2"/>
       <c r="M50" s="3"/>
       <c r="N50" s="2"/>
@@ -3119,7 +3137,7 @@
       <c r="Y50" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="AB50" s="7" t="s">
+      <c r="AB50" s="8" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3148,7 +3166,7 @@
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
+      <c r="K51" s="7"/>
       <c r="L51" s="2"/>
       <c r="M51" s="3"/>
       <c r="N51" s="2"/>
@@ -3196,7 +3214,7 @@
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
+      <c r="K52" s="7"/>
       <c r="L52" s="2"/>
       <c r="M52" s="3"/>
       <c r="N52" s="2"/>
@@ -3236,7 +3254,7 @@
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
+      <c r="K53" s="7"/>
       <c r="L53" s="2"/>
       <c r="M53" s="3"/>
       <c r="N53" s="2"/>
@@ -3276,7 +3294,7 @@
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
+      <c r="K54" s="7"/>
       <c r="L54" s="2"/>
       <c r="M54" s="3"/>
       <c r="N54" s="2"/>
@@ -3318,7 +3336,7 @@
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
+      <c r="K55" s="7"/>
       <c r="L55" s="2"/>
       <c r="M55" s="3"/>
       <c r="N55" s="2"/>
@@ -3359,7 +3377,7 @@
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
+      <c r="K56" s="7"/>
       <c r="L56" s="2"/>
       <c r="M56" s="3"/>
       <c r="N56" s="2"/>
@@ -3403,7 +3421,7 @@
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
+      <c r="K57" s="7"/>
       <c r="L57" s="2"/>
       <c r="M57" s="3"/>
       <c r="N57" s="2"/>
@@ -3447,7 +3465,7 @@
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
+      <c r="K58" s="7"/>
       <c r="L58" s="2"/>
       <c r="M58" s="3"/>
       <c r="N58" s="2"/>
@@ -3462,7 +3480,7 @@
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>162</v>
       </c>
@@ -3473,8 +3491,9 @@
         <v>51</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>52</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="K59" s="7"/>
       <c r="N59" s="0" t="s">
         <v>52</v>
       </c>
@@ -3491,7 +3510,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>165</v>
       </c>
@@ -3501,6 +3520,7 @@
       <c r="D60" s="0" t="s">
         <v>167</v>
       </c>
+      <c r="K60" s="7"/>
       <c r="V60" s="0" t="s">
         <v>52</v>
       </c>
@@ -3508,7 +3528,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>168</v>
       </c>
@@ -3521,6 +3541,7 @@
       <c r="I61" s="0" t="s">
         <v>51</v>
       </c>
+      <c r="K61" s="7"/>
       <c r="U61" s="0" t="s">
         <v>51</v>
       </c>
@@ -3528,7 +3549,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>169</v>
       </c>
@@ -3538,11 +3559,12 @@
       <c r="D62" s="0" t="s">
         <v>170</v>
       </c>
+      <c r="K62" s="7"/>
       <c r="V62" s="0" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>171</v>
       </c>
@@ -3555,6 +3577,7 @@
       <c r="I63" s="0" t="s">
         <v>51</v>
       </c>
+      <c r="K63" s="7"/>
       <c r="P63" s="0" t="s">
         <v>52</v>
       </c>
@@ -3562,7 +3585,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>174</v>
       </c>
@@ -3575,14 +3598,18 @@
       <c r="I64" s="0" t="s">
         <v>51</v>
       </c>
+      <c r="J64" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="K64" s="7"/>
       <c r="L64" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S64" s="0" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>177</v>
       </c>
@@ -3593,11 +3620,39 @@
         <v>51</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>51</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="K65" s="7"/>
       <c r="N65" s="0" t="s">
         <v>52</v>
       </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K66" s="7"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K67" s="7"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K68" s="7"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K69" s="7"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K70" s="7"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K71" s="7"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K72" s="7"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K73" s="7"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K74" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/hw_global/Data/hourlyDataSchema.xlsx
+++ b/hw_global/Data/hourlyDataSchema.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="179">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -689,7 +689,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -716,10 +716,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -810,16 +806,16 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I18" activeCellId="0" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="K28" activeCellId="0" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="3.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.86"/>
@@ -1250,11 +1246,9 @@
       <c r="K10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="L10" s="2"/>
       <c r="M10" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>52</v>
@@ -1319,7 +1313,9 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="M11" s="3"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1403,7 +1399,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1463,7 +1459,9 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="L14" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -1549,11 +1547,9 @@
       <c r="K16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="L16" s="2"/>
       <c r="M16" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>52</v>
@@ -1622,7 +1618,9 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="M17" s="3"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -1875,11 +1873,9 @@
       <c r="K23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="L23" s="2"/>
       <c r="M23" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -1938,7 +1934,9 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+      <c r="L24" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="M24" s="3"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -2074,11 +2072,9 @@
       <c r="K27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L27" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="L27" s="2"/>
       <c r="M27" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>52</v>
@@ -2147,7 +2143,9 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
+      <c r="L28" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="M28" s="3"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -2448,11 +2446,9 @@
       <c r="K35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L35" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="L35" s="2"/>
       <c r="M35" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -2510,7 +2506,9 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
+      <c r="L36" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="M36" s="3"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -3049,10 +3047,10 @@
       <c r="I49" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J49" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K49" s="7" t="s">
+      <c r="J49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K49" s="2" t="s">
         <v>51</v>
       </c>
       <c r="L49" s="2" t="s">
@@ -3118,7 +3116,7 @@
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
-      <c r="K50" s="7"/>
+      <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="3"/>
       <c r="N50" s="2"/>
@@ -3137,7 +3135,7 @@
       <c r="Y50" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="AB50" s="8" t="s">
+      <c r="AB50" s="7" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3166,7 +3164,7 @@
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="7"/>
+      <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="3"/>
       <c r="N51" s="2"/>
@@ -3214,7 +3212,7 @@
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
-      <c r="K52" s="7"/>
+      <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="3"/>
       <c r="N52" s="2"/>
@@ -3254,7 +3252,7 @@
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
-      <c r="K53" s="7"/>
+      <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="3"/>
       <c r="N53" s="2"/>
@@ -3294,7 +3292,7 @@
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
-      <c r="K54" s="7"/>
+      <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="3"/>
       <c r="N54" s="2"/>
@@ -3336,7 +3334,7 @@
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
-      <c r="K55" s="7"/>
+      <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="3"/>
       <c r="N55" s="2"/>
@@ -3377,7 +3375,7 @@
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
-      <c r="K56" s="7"/>
+      <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="3"/>
       <c r="N56" s="2"/>
@@ -3421,7 +3419,7 @@
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
-      <c r="K57" s="7"/>
+      <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="3"/>
       <c r="N57" s="2"/>
@@ -3465,7 +3463,7 @@
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
-      <c r="K58" s="7"/>
+      <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="3"/>
       <c r="N58" s="2"/>
@@ -3493,7 +3491,7 @@
       <c r="J59" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="K59" s="7"/>
+      <c r="K59" s="2"/>
       <c r="N59" s="0" t="s">
         <v>52</v>
       </c>
@@ -3520,7 +3518,7 @@
       <c r="D60" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="K60" s="7"/>
+      <c r="K60" s="2"/>
       <c r="V60" s="0" t="s">
         <v>52</v>
       </c>
@@ -3541,7 +3539,7 @@
       <c r="I61" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="K61" s="7"/>
+      <c r="K61" s="2"/>
       <c r="U61" s="0" t="s">
         <v>51</v>
       </c>
@@ -3559,7 +3557,7 @@
       <c r="D62" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="K62" s="7"/>
+      <c r="K62" s="2"/>
       <c r="V62" s="0" t="s">
         <v>52</v>
       </c>
@@ -3577,7 +3575,7 @@
       <c r="I63" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="K63" s="7"/>
+      <c r="K63" s="2"/>
       <c r="P63" s="0" t="s">
         <v>52</v>
       </c>
@@ -3601,7 +3599,7 @@
       <c r="J64" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="K64" s="7"/>
+      <c r="K64" s="2"/>
       <c r="L64" s="0" t="s">
         <v>51</v>
       </c>
@@ -3622,37 +3620,37 @@
       <c r="J65" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="K65" s="7"/>
+      <c r="K65" s="2"/>
       <c r="N65" s="0" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K66" s="7"/>
+      <c r="K66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K67" s="7"/>
+      <c r="K67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K68" s="7"/>
+      <c r="K68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K69" s="7"/>
+      <c r="K69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K70" s="7"/>
+      <c r="K70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K71" s="7"/>
+      <c r="K71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K72" s="7"/>
+      <c r="K72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K73" s="7"/>
+      <c r="K73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K74" s="7"/>
+      <c r="K74" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/hw_global/Data/hourlyDataSchema.xlsx
+++ b/hw_global/Data/hourlyDataSchema.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="188">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -79,67 +79,25 @@
     <t xml:space="preserve">hourly_selected</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">hourly</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">_delta_selected</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">hourly</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">_Hw_no_hw_selected</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">hourly</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">_DD_selected</t>
-    </r>
+    <t xml:space="preserve">hourly_delta_selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hourly_Hw_no_hw_selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hourly_DD_selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hourly2_selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hourly2_delta_selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hourly2_Hw_no_hw_selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hourly2_DD_selected</t>
   </si>
   <si>
     <t xml:space="preserve">HW_NOHW_Diff</t>
@@ -617,6 +575,9 @@
   </si>
   <si>
     <t xml:space="preserve">soil liquid water + ice in top 10cm of soil (veg landunits only)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kg/m2</t>
   </si>
   <si>
     <t xml:space="preserve">local_hour</t>
@@ -632,7 +593,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -661,12 +622,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -718,7 +673,11 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -727,7 +686,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -748,191 +707,211 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF65"/>
+  <dimension ref="A1:AJ65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V7" activeCellId="0" sqref="V7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="T23" activeCellId="0" sqref="T23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="69.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="71.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="24.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="26.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="21.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="22.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="27.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="20.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="16.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="12.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="9.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="8.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="144.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="22.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="27.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="20.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="17.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="23.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="29.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="21.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="16.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="9.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="8.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="13.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="15.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="144.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>-9999</v>
@@ -943,13 +922,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>-9999</v>
@@ -960,13 +939,13 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-9999</v>
@@ -977,1815 +956,1902 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="F9" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S10" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="T10" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="U10" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="V10" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="W10" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="X10" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y10" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z10" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA10" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="AB10" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AC10" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD10" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE10" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="AF10" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG10" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH10" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI10" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="F11" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="V13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="W13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="X13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z13" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA13" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="AB13" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AC13" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD13" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="AF13" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG13" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH13" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S16" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="T16" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="U16" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="V16" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="W16" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="X16" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y16" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z16" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA16" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="AB16" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AC16" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD16" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE16" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="AF16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI16" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC22" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD22" s="0" t="s">
-        <v>55</v>
+        <v>39</v>
+      </c>
+      <c r="AG22" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH22" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S23" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="T23" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="U23" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="V23" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="W23" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="X23" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y23" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z23" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA23" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="AB23" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AC23" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD23" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="AF23" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG23" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH23" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC26" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD26" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF26" s="0" t="s">
-        <v>91</v>
+        <v>39</v>
+      </c>
+      <c r="AG26" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH26" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ26" s="0" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S27" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="T27" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="U27" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="V27" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="W27" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="X27" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y27" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z27" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA27" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="AB27" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AC27" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD27" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE27" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="AF27" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG27" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH27" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI27" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="W30" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z30" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC30" s="0" t="s">
-        <v>56</v>
+        <v>39</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA30" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD30" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG30" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="W34" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z34" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC34" s="0" t="s">
-        <v>56</v>
+        <v>39</v>
+      </c>
+      <c r="AA34" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="AD34" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="AG34" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH34" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q35" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R35" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S35" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="T35" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="U35" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="V35" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="W35" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="X35" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z35" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA35" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="AB35" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC35" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD35" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="AF35" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG35" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH35" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C37" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>113</v>
-      </c>
       <c r="F37" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="W38" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z38" s="0" t="s">
-        <v>55</v>
+        <v>39</v>
+      </c>
+      <c r="AA38" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD38" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="W39" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z39" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="AA39" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD39" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC41" s="0" t="s">
-        <v>56</v>
+        <v>39</v>
+      </c>
+      <c r="AG41" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C43" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="F43" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC43" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD43" s="0" t="s">
-        <v>56</v>
+        <v>39</v>
+      </c>
+      <c r="AG43" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH43" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P49" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S49" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="U49" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="W49" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y49" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z49" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA49" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="AC49" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AD49" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE49" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF49" s="0" t="s">
-        <v>144</v>
+        <v>60</v>
+      </c>
+      <c r="AG49" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH49" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI49" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ49" s="0" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z50" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC50" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF50" s="0" t="s">
-        <v>147</v>
+        <v>39</v>
+      </c>
+      <c r="AD50" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG50" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ50" s="0" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB51" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC51" s="0" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="AF51" s="0" t="s">
-        <v>150</v>
+        <v>59</v>
+      </c>
+      <c r="AG51" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ51" s="0" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="W54" s="0" t="s">
-        <v>56</v>
+        <v>39</v>
+      </c>
+      <c r="AA54" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="W55" s="0" t="s">
-        <v>55</v>
+        <v>39</v>
+      </c>
+      <c r="AA55" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="W56" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC56" s="0" t="s">
-        <v>161</v>
+        <v>39</v>
+      </c>
+      <c r="AA56" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG56" s="0" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="W57" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC57" s="0" t="s">
-        <v>161</v>
+        <v>39</v>
+      </c>
+      <c r="AA57" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG57" s="0" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S59" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y59" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z59" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W59" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="AC59" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF59" s="0" t="s">
-        <v>168</v>
+        <v>60</v>
+      </c>
+      <c r="AD59" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG59" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ59" s="0" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z60" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC60" s="0" t="s">
-        <v>56</v>
+        <v>175</v>
+      </c>
+      <c r="AD60" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG60" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y61" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z61" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="AC61" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD61" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z62" s="0" t="s">
-        <v>56</v>
+        <v>178</v>
+      </c>
+      <c r="AD62" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>179</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P63" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="W63" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="U63" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA63" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>185</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S64" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="U64" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="W64" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U64" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y64" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA64" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S65" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W65" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
